--- a/Assets/Resources/CombatStats.xlsx
+++ b/Assets/Resources/CombatStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\Prosper\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EB3E6-B9D4-4543-9C19-42FA15A9AAA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB7D4D-3CDE-4878-8D74-FB3E198F7C07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7995" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{372298CE-B294-4523-B411-058928BCA8B9}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>

--- a/Assets/Resources/CombatStats.xlsx
+++ b/Assets/Resources/CombatStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\Prosper\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB7D4D-3CDE-4878-8D74-FB3E198F7C07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B66E41-9B74-44AC-AE53-61EE90474546}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{372298CE-B294-4523-B411-058928BCA8B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{372298CE-B294-4523-B411-058928BCA8B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Combat Level</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Gear Description</t>
+  </si>
+  <si>
+    <t>Snap Time</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CF6C14-4353-4A92-8017-698CD8577576}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +439,11 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="63" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +463,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -481,11 +488,14 @@
       <c r="F2">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,11 +514,14 @@
       <c r="F3">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>0.7</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -527,11 +540,14 @@
       <c r="F4">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -550,11 +566,14 @@
       <c r="F5">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -573,7 +592,10 @@
       <c r="F6" s="2">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
